--- a/1_pptx/marp-cli.xlsx
+++ b/1_pptx/marp-cli.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\2021\0_ISO26262\4_md\1_pptx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_project_public\1_pptx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D2CA31E-D3F0-4D71-BCE2-0CD4F570CF9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{446CC382-F1F0-420B-B6E6-FB4D7DBD63E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{2AFCA464-7CBC-4A17-A301-D94E8C3577B6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>https://qiita.com/sefoo0104/items/0653c935ea4a4db9dc2b</t>
     <phoneticPr fontId="1"/>
@@ -65,8 +65,98 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">marp --theme-set </t>
+    <t>MarpにCSSを追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSSのファイルをmdと同じフォルダに置かないと認識できない</t>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSSを作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>VS Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Marp: Themes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にCSSを追加</t>
+    </r>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレビューに反映される</t>
+    <rPh sb="6" eb="8">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>marp-cliのExportコマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定→marp html→Marp: Enable HTMLにチェック</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">marp --html --theme-set </t>
     </r>
     <r>
       <rPr>
@@ -88,7 +178,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.css --pdf --allow-local-files </t>
+      <t xml:space="preserve">.css --pptx --allow-local-files </t>
     </r>
     <r>
       <rPr>
@@ -116,7 +206,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">marp --theme-set </t>
+      <t xml:space="preserve">marp --html --theme-set </t>
     </r>
     <r>
       <rPr>
@@ -138,7 +228,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.css --pptx --allow-local-files </t>
+      <t xml:space="preserve">.css --pdf --allow-local-files </t>
     </r>
     <r>
       <rPr>
@@ -165,86 +255,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MarpにCSSを追加</t>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題</t>
+    <t>Nodeから以下のコマンドを実行。意味はHTML記法の許可、テーマのCSSセット、mdファイルよりPDForPptxの作成</t>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vscodeでのHTMLタグの有効方法</t>
+    <rPh sb="15" eb="17">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vscoodeでのテーブル結合の有効方法</t>
+    <rPh sb="13" eb="15">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定→Markdown-preview-enhanced: Enable Extended Table Syntax</t>
     <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSSのファイルをmdと同じフォルダに置かないと認識できない</t>
-    <rPh sb="12" eb="13">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSSを作成</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>VS Code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の設定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Marp: Themes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>にCSSを追加</t>
-    </r>
-    <rPh sb="27" eb="29">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレビューに反映される</t>
-    <rPh sb="6" eb="8">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>marp-cliのExportコマンド</t>
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -252,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +357,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +399,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8635752-762F-4DEF-8FE7-82F9E4ECBFA1}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -679,7 +749,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
@@ -694,10 +764,15 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
+      <c r="D14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
@@ -705,7 +780,27 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +825,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
@@ -738,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
@@ -746,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
@@ -754,17 +849,17 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
